--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2624222.426947477</v>
+        <v>2621204.836546542</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>49.11999173551387</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>137.2455942660685</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>74.53436060286496</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>93.6300723051348</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>178.1278024409342</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>213.9154470216037</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>58.40336142830142</v>
       </c>
       <c r="C8" t="n">
-        <v>85.95098085256463</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>101.6257152931844</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1546,7 +1546,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>178.0089102065518</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>18.46423243228393</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648052004</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>29.18937547121088</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>238.2336684417123</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896931</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274068</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>238.2336684417116</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>225.1809026611718</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>104.8708820236318</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>70.43533402631114</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>165.347775713748</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>71.18858666156129</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>164.892878427827</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>23.5487265497752</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274091</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>124.3698588555111</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.3581591823472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249802</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>170.5809693952303</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>3.793592463874502</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274081</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385038</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>18.89390621046994</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>87.52089555820601</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>58.40168825977475</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>93.29250597625504</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>33.67387356634585</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>169.1477376595846</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>37.92859048094263</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>204.1291651532058</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2647.532937750027</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2471.355450064197</v>
       </c>
       <c r="T2" t="n">
-        <v>2558.517177618153</v>
+        <v>2471.355450064197</v>
       </c>
       <c r="U2" t="n">
-        <v>2304.755392256245</v>
+        <v>2471.355450064197</v>
       </c>
       <c r="V2" t="n">
-        <v>1973.692504912674</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="W2" t="n">
-        <v>1973.692504912674</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="X2" t="n">
-        <v>1600.226746651594</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1210.087414675782</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>652.8417512742476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>424.8522003762303</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4577,16 +4577,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1954.952953346655</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.952953346655</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,31 +4656,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>512.0527750937034</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>222.8791647482714</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>222.8791647482714</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>222.8791647482714</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1404.597857825387</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
         <v>959.5129866402885</v>
@@ -4790,7 +4790,7 @@
         <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,25 +4799,25 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062279</v>
+        <v>1782.111371249202</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.737189801199</v>
+        <v>1408.645612988122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.597857825387</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>304.5083130726408</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>304.5083130726408</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>156.5952194902477</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>502.7251118619119</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005477</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,22 +5030,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1319.109290551284</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1319.109290551284</v>
       </c>
       <c r="V13" t="n">
-        <v>1369.190427289138</v>
+        <v>1064.424802345397</v>
       </c>
       <c r="W13" t="n">
-        <v>1369.190427289138</v>
+        <v>1064.424802345397</v>
       </c>
       <c r="X13" t="n">
-        <v>1141.200876391121</v>
+        <v>1064.424802345397</v>
       </c>
       <c r="Y13" t="n">
-        <v>1141.200876391121</v>
+        <v>1064.424802345397</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,37 +5288,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636254</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404653</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1258.27620142486</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V16" t="n">
-        <v>1003.591713218973</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W16" t="n">
-        <v>714.1745431820127</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X16" t="n">
-        <v>486.1849922839954</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404653</v>
+        <v>126.7013091079736</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,7 +5580,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571612</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>1196.088769018223</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1503.408902298184</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1833.271529962217</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471248</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974673</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.48306298007</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585753</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771467</v>
+        <v>1258.27620142486</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655799</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905256</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,58 +5744,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028599</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766205</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.010087623275</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>988.7065213774121</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>819.7703384495052</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>669.6536990371694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>521.7406054547763</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.499100520942</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.7065213774121</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2479.815397437608</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2628.885081639668</v>
+        <v>410.8745301331627</v>
       </c>
       <c r="L24" t="n">
-        <v>2875.650209546132</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>3644.018355938594</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>3973.880983602627</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>4253.421048821324</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557071</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>337.3000764349716</v>
+        <v>877.6314179392376</v>
       </c>
       <c r="C25" t="n">
-        <v>337.3000764349716</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D25" t="n">
-        <v>337.3000764349716</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>337.3000764349716</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>337.3000764349716</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>169.1247547547922</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765191</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>786.0822064765191</v>
+        <v>1098.423997082768</v>
       </c>
       <c r="X25" t="n">
-        <v>558.0926555785018</v>
+        <v>1098.423997082768</v>
       </c>
       <c r="Y25" t="n">
-        <v>337.3000764349716</v>
+        <v>877.6314179392376</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211724</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011341</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265285</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483982</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>289.9398668627132</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>121.0036839348063</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>121.0036839348063</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471248</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119734</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119734</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119734</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119734</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119734</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617345004</v>
+        <v>1098.423997082773</v>
       </c>
       <c r="X28" t="n">
-        <v>692.3809108364831</v>
+        <v>1098.423997082773</v>
       </c>
       <c r="Y28" t="n">
-        <v>471.5883316929529</v>
+        <v>877.6314179392431</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,19 +6488,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>415.8104215925219</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C31" t="n">
-        <v>415.8104215925219</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1262.215047063657</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1262.215047063657</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655742</v>
+        <v>1262.215047063657</v>
       </c>
       <c r="W31" t="n">
-        <v>955.1031435655742</v>
+        <v>972.7978770266959</v>
       </c>
       <c r="X31" t="n">
-        <v>727.1135926675569</v>
+        <v>744.8083261286786</v>
       </c>
       <c r="Y31" t="n">
-        <v>597.4588864227617</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6722,25 +6722,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,16 +6765,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6783,19 +6783,19 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M33" t="n">
-        <v>841.8631140141293</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1171.725741678162</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.753134944335</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="C34" t="n">
-        <v>523.8169520164281</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="D34" t="n">
-        <v>523.8169520164281</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="E34" t="n">
-        <v>523.8169520164281</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1495.084358978232</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1271.298943767737</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>982.1703049812957</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V34" t="n">
-        <v>982.1703049812957</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W34" t="n">
-        <v>692.753134944335</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X34" t="n">
-        <v>692.753134944335</v>
+        <v>3799.634725086986</v>
       </c>
       <c r="Y34" t="n">
-        <v>692.753134944335</v>
+        <v>3799.634725086986</v>
       </c>
     </row>
     <row r="35">
@@ -6914,34 +6914,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705745</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705745</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705745</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705745</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1299.43622211144</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1299.43622211144</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.751733905553</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W37" t="n">
-        <v>755.3345638685919</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X37" t="n">
-        <v>527.3450129705745</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y37" t="n">
-        <v>527.3450129705745</v>
+        <v>1009.867621687013</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7169,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>329.1202010073249</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>943.0172707642137</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.384017443268</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="C40" t="n">
-        <v>324.384017443268</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D40" t="n">
-        <v>324.384017443268</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7360,22 +7360,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1404.681416036433</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557903</v>
+        <v>1115.552777249991</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352016</v>
+        <v>1115.552777249991</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150552</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170379</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735078</v>
+        <v>826.1356072130308</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7427,34 +7427,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>599.9410747082374</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>599.9410747082374</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>449.8244352959016</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
         <v>507.4972331799365</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>781.5895395384771</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>781.5895395384771</v>
       </c>
     </row>
     <row r="44">
@@ -7643,7 +7643,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,16 +7713,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7731,22 +7731,22 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>862.6633074373284</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>824.3515998808207</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
         <v>507.4972331799365</v>
@@ -7834,22 +7834,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765191</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706323</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>1044.311772267568</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>412.600292959643</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>277.6717966208051</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>20.63789864135373</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>104.8749102765738</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>73.53204524669957</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445216</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,22 +10431,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>360.5026862907247</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445216</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>104.8749102765741</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>41.75994765618333</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711649</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445216</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229576</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>412.6002929596423</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>43.53865085183745</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>233.6734108915441</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>138.057445627417</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>48.00368395686505</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,13 +23944,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>48.00368395686573</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>61.34209567541922</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>40.55016599929944</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>216.0876643102799</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>1.899045384879798</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>77.72524170597484</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>14.93910175411031</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>122.885236096794</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,7 +24655,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>97.17770220287814</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.22649416974755</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>9.251010786706985</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25123,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>194.1272175197288</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>160.9380739714674</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>134.0266655001832</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>88.03227438679443</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25600,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>128.2550550821342</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>112.7600890802233</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>82.98990566424339</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>129.3182306176852</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,19 +26074,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>82.3938331833852</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="F2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065634</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="L2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="M2" t="n">
+        <v>586543.5896065633</v>
+      </c>
+      <c r="N2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="N2" t="n">
-        <v>586543.5896065633</v>
-      </c>
       <c r="O2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430944</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.5006543094</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430948</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871667</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213405.373621497</v>
+        <v>-213820.588130964</v>
       </c>
       <c r="C6" t="n">
-        <v>376562.5055930478</v>
+        <v>376147.2910835808</v>
       </c>
       <c r="D6" t="n">
-        <v>376562.5055930479</v>
+        <v>376147.2910835807</v>
       </c>
       <c r="E6" t="n">
-        <v>-45315.27347335928</v>
+        <v>-45649.44244048872</v>
       </c>
       <c r="F6" t="n">
-        <v>479844.7630035364</v>
+        <v>479510.5940364073</v>
       </c>
       <c r="G6" t="n">
-        <v>479844.7630035369</v>
+        <v>479510.5940364074</v>
       </c>
       <c r="H6" t="n">
-        <v>479844.7630035371</v>
+        <v>479510.594036407</v>
       </c>
       <c r="I6" t="n">
-        <v>479844.763003537</v>
+        <v>479510.5940364072</v>
       </c>
       <c r="J6" t="n">
-        <v>303421.543810944</v>
+        <v>303087.3748438146</v>
       </c>
       <c r="K6" t="n">
-        <v>479844.763003537</v>
+        <v>479510.594036407</v>
       </c>
       <c r="L6" t="n">
-        <v>479844.7630035369</v>
+        <v>479510.5940364073</v>
       </c>
       <c r="M6" t="n">
-        <v>345043.7477696998</v>
+        <v>344709.5788025705</v>
       </c>
       <c r="N6" t="n">
-        <v>479844.7630035372</v>
+        <v>479510.5940364074</v>
       </c>
       <c r="O6" t="n">
-        <v>479844.7630035367</v>
+        <v>479510.5940364075</v>
       </c>
       <c r="P6" t="n">
-        <v>479844.7630035367</v>
+        <v>479510.5940364077</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,16 +26744,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26790,28 +26790,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="J4" t="n">
         <v>1215.213643253574</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>5.358410839297854</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>79.20272609158934</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>211.988637733726</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>271.6428194658728</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>191.6032982375348</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>11.11965843648056</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684542</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>324.3304802351792</v>
       </c>
       <c r="C8" t="n">
-        <v>279.3219109184429</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>43.79533272974685</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>63.13204062090043</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.032423543847198e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.278858831540371e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119866</v>
@@ -31543,19 +31543,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q10" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31713,7 +31713,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32482,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32503,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32631,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32643,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32655,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>363.8358297686019</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>745.7948663576559</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K18" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>526.9295015768297</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315249</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686871</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789779</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36130,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>595.5275127043991</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>227.7313135728785</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>146.7850892314805</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>274.9155166742619</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507416</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879393</v>
@@ -36680,7 +36680,7 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415666</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>280.6254601782243</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.309841178978</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>642.866388531833</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>387.2386125176823</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>192.3353862441226</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109073</v>
@@ -37795,7 +37795,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734239</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>745.7948663576552</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
@@ -38117,7 +38117,7 @@
         <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2696734.506211346</v>
+        <v>2689717.491319635</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>358.5896709125799</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>238.511020299109</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>234.4970761400735</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>85.77998671918692</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>86.1128324554501</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>160.1743669966224</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>320.7975396524263</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>200.6121990050434</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>99.66075074687637</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>156.1271626621471</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>36.56996037214066</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>176.9527187969212</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>215.6873641199259</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>69.67391997229328</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>23.2717965761735</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>218.7507917565095</v>
       </c>
       <c r="W25" t="n">
-        <v>199.4975069857288</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>197.7630484607891</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>171.2564705574937</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U31" t="n">
-        <v>239.1860995775776</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>71.64469598743554</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>214.6986645196624</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,10 +3720,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>26.4107078574875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>67.61524188852295</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>263.7539291508197</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4191,10 +4191,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>166.1848299532894</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.080506218543</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781315</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="D2" t="n">
-        <v>478.852290671381</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="E2" t="n">
-        <v>478.852290671381</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>569.6207466258606</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2280.05138080804</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1948.988493464469</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1596.219838194355</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>1596.219838194355</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1206.080506218543</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,25 +4436,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1129.234822142136</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>760.2723052017247</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2610.50263978672</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2279.43975244315</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>2279.43975244315</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X5" t="n">
-        <v>1905.97399418207</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y5" t="n">
-        <v>1515.834662206258</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424008</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036471</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>261.3917961488083</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V7" t="n">
-        <v>261.3917961488083</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="W7" t="n">
-        <v>261.3917961488083</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>438.9553738610025</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,46 +4810,46 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205144</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="X8" t="n">
-        <v>2311.057514205144</v>
+        <v>2323.683332757144</v>
       </c>
       <c r="Y8" t="n">
-        <v>2108.418929351565</v>
+        <v>1933.544000781332</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614623</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571342</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296039</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6471865296039</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5038,10 +5038,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5059,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>2032.925401907737</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2312.465467126434</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2517.487947908644</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>693.7762810288177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1350.901813208475</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1096.217325002588</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1096.217325002588</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>1096.217325002588</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>875.4247458590575</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5272,25 +5272,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1320.176150561012</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1320.176150561012</v>
+        <v>1081.130236109893</v>
       </c>
       <c r="U16" t="n">
-        <v>1031.04751177457</v>
+        <v>1081.130236109893</v>
       </c>
       <c r="V16" t="n">
-        <v>776.3630235686835</v>
+        <v>1081.130236109893</v>
       </c>
       <c r="W16" t="n">
-        <v>486.9458535317228</v>
+        <v>791.7130660729324</v>
       </c>
       <c r="X16" t="n">
-        <v>486.9458535317228</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881928</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4208.336137767207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>4039.3999548393</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>4679.401772634407</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>4679.401772634407</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>4389.984602597447</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>4389.984602597447</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>4389.984602597447</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5797,7 +5797,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.489395244997</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.489395244997</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.489395244997</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>986.0722252080359</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>758.0826743100185</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>537.2900951664884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5986,13 +5986,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372321</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3540.192194764782</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3888.605416374899</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4558.069177677558</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4763.091658459768</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916991</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>525.6009593486384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>356.6647764207315</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207315</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W25" t="n">
-        <v>753.5905102466558</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X25" t="n">
-        <v>525.6009593486384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y25" t="n">
-        <v>525.6009593486384</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6308,22 +6308,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2463.528495470035</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.2349604684848</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C28" t="n">
-        <v>674.2349604684848</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684848</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>1299.155615547004</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.21084526296</v>
+        <v>1299.155615547004</v>
       </c>
       <c r="W28" t="n">
-        <v>902.2245113665022</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="X28" t="n">
-        <v>674.2349604684848</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.2349604684848</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,28 +6451,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6484,10 +6484,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>846.9127704725952</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1651.324348736746</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U31" t="n">
-        <v>1033.528734561976</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1033.528734561976</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>1033.528734561976</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>805.539183663959</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1711.385417156675</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>898.5039869983193</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>729.5678040704124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>579.4511646580767</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>431.5380710756835</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>898.5039869983193</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>898.5039869983193</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>898.5039869983193</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7028,13 +7028,13 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2032.925401907737</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2312.465467126434</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>672.4909068465487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1082.128922574806</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1082.128922574806</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1082.128922574806</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>854.1393716767884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>854.1393716767884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,19 +7186,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>959.3247338766356</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>959.3247338766356</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>244.1070389581962</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1430.618046428081</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1430.618046428081</v>
       </c>
       <c r="W43" t="n">
-        <v>464.8996181017263</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="X43" t="n">
-        <v>464.8996181017263</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y43" t="n">
-        <v>244.1070389581962</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1894.594339433114</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247858</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>796.2722772255036</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270186</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>435.9238900028816</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.14409596997061</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,25 +9245,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>18.73797368291298</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.64859338270685</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>5.100663089360012</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,25 +10433,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>242.9997743936052</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10676,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>19.14409596997092</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10831,13 +10831,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>414.5002179180844</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>43.65987261462527</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,19 +11384,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>158.8724419039332</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>249.6673920264367</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>20.96809118668202</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>5.860196938463304</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>216.5634324262841</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>198.2757644822157</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>33.38685156731847</v>
       </c>
       <c r="W25" t="n">
-        <v>87.02549135086218</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>88.47430393778828</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>115.2665277790973</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U31" t="n">
-        <v>47.05125282099976</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>73.77635203549571</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>71.53868787891497</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>225.7269354663405</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>218.6221105100544</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>22.76906918577134</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>85.95281337053862</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="G2" t="n">
         <v>586543.5896065625</v>
       </c>
-      <c r="G2" t="n">
-        <v>586543.5896065629</v>
-      </c>
       <c r="H2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="J2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
+        <v>586543.5896065625</v>
+      </c>
+      <c r="L2" t="n">
         <v>586543.5896065626</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="N2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="O2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.5896065627</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065625</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.5896065623</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.03523461802979e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512225</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26438,7 +26438,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,22 +26490,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-213820.5881309639</v>
       </c>
       <c r="C6" t="n">
-        <v>376147.2910835805</v>
+        <v>376147.2910835806</v>
       </c>
       <c r="D6" t="n">
-        <v>376147.2910835808</v>
+        <v>376147.2910835809</v>
       </c>
       <c r="E6" t="n">
-        <v>-45649.44244048889</v>
+        <v>-46624.0337002102</v>
       </c>
       <c r="F6" t="n">
-        <v>479510.5940364068</v>
+        <v>478536.0027766854</v>
       </c>
       <c r="G6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766852</v>
       </c>
       <c r="H6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766853</v>
       </c>
       <c r="I6" t="n">
-        <v>479510.5940364071</v>
+        <v>478536.0027766854</v>
       </c>
       <c r="J6" t="n">
-        <v>303087.3748438141</v>
+        <v>302112.7835840926</v>
       </c>
       <c r="K6" t="n">
-        <v>479510.594036407</v>
+        <v>478536.0027766852</v>
       </c>
       <c r="L6" t="n">
-        <v>479510.5940364071</v>
+        <v>478536.0027766853</v>
       </c>
       <c r="M6" t="n">
-        <v>344709.5788025704</v>
+        <v>343734.9875428481</v>
       </c>
       <c r="N6" t="n">
-        <v>479510.5940364068</v>
+        <v>478536.0027766856</v>
       </c>
       <c r="O6" t="n">
-        <v>479510.5940364071</v>
+        <v>478536.0027766853</v>
       </c>
       <c r="P6" t="n">
-        <v>479510.5940364066</v>
+        <v>478536.0027766854</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,31 +27011,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>540.9263704990174</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>540.9263704990176</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>55.19449910821504</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>12.71314720918031</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>17.64056718375448</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>165.4441807891024</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>81.13398864317773</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>65.53528839241471</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>44.47535211858127</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>185.6257396510102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>125.3743547112079</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>130.3958356744439</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>515.9012490932186</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.1571287550447</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>351.9325470809258</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>161.661626167781</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>315.5250401398262</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>553.4241514440714</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>226.2375109014956</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37633,13 +37633,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>747.6947913160973</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>354.0842496650915</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>441.2361441450414</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2689717.491319635</v>
+        <v>2694656.754168668</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>343.3588945158828</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>358.5896709125799</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>59.66385641544551</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>142.5641369480942</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>75.47724870633921</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>339.0399185806818</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>86.1128324554501</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>320.7975396524263</v>
+        <v>354.7522162574265</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.6638564154457</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>99.66075074687637</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>274.0971848889079</v>
       </c>
       <c r="X13" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>154.8356463976235</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>215.6873641199259</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,7 +2535,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>218.7507917565095</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>188.4590648403947</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>197.7630484607891</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>195.8155841663235</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>26.15603929387842</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>193.486767012043</v>
       </c>
       <c r="U43" t="n">
-        <v>67.61524188852295</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>77.7414640267985</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1349.56916835588</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C2" t="n">
-        <v>980.6066514154681</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D2" t="n">
-        <v>980.6066514154681</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="E2" t="n">
-        <v>980.6066514154681</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>569.6207466258606</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4369,13 +4369,13 @@
         <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.708500331692</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1349.56916835588</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>283.2093037137952</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>554.7078863246074</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.409918978289</v>
+        <v>1825.581288436855</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.447402037878</v>
+        <v>1825.581288436855</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.181703431127</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>807.393450832883</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>396.4075460432754</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036471</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610025</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.94416071721</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757144</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781332</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036448</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5038,7 +5038,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>821.846685011157</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>821.846685011157</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>821.846685011157</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>821.846685011157</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5272,7 +5272,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.7235151749151</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C16" t="n">
-        <v>563.7235151749151</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1081.130236109893</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1081.130236109893</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1081.130236109893</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>791.7130660729324</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>563.7235151749151</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.7235151749151</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="17">
@@ -5497,31 +5497,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5968,19 +5968,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>765.0418208473204</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>475.6246508103599</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.9563154684962</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U28" t="n">
-        <v>1299.155615547004</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V28" t="n">
-        <v>1299.155615547004</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W28" t="n">
-        <v>1009.738445510044</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X28" t="n">
-        <v>781.7488946120263</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y28" t="n">
-        <v>560.9563154684962</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>648.5868613273557</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
@@ -6961,16 +6961,16 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,55 +7171,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,25 +7241,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
         <v>359.1696912903951</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1192.399988319684</v>
       </c>
       <c r="U43" t="n">
-        <v>1430.618046428081</v>
+        <v>903.2713495332425</v>
       </c>
       <c r="V43" t="n">
-        <v>1430.618046428081</v>
+        <v>648.5868613273557</v>
       </c>
       <c r="W43" t="n">
-        <v>1141.200876391121</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X43" t="n">
-        <v>1141.200876391121</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y43" t="n">
-        <v>1141.200876391121</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1420.389539217702</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1131.26090043126</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>876.5764122253731</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270186</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028816</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814699</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>12.42581344768314</v>
       </c>
       <c r="X13" t="n">
-        <v>103.0576765518772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>11.65792206575404</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>5.860196938463304</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>33.38685156731847</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>9.461745143208503</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>88.47430393778828</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>225.9816040299496</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>28.06079404634627</v>
       </c>
       <c r="U43" t="n">
-        <v>218.6221105100544</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>143.8060970315908</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="6">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.327398213</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982127</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982129</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982129</v>
-      </c>
       <c r="E2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="F2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.589606563</v>
       </c>
       <c r="L2" t="n">
         <v>586543.5896065626</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03523461802979e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512225</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26441,7 +26441,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26450,10 +26450,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
@@ -26484,16 +26484,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,10 +26502,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213820.5881309639</v>
+        <v>-213820.5881309636</v>
       </c>
       <c r="C6" t="n">
+        <v>376147.2910835809</v>
+      </c>
+      <c r="D6" t="n">
         <v>376147.2910835806</v>
       </c>
-      <c r="D6" t="n">
-        <v>376147.2910835809</v>
-      </c>
       <c r="E6" t="n">
-        <v>-46624.0337002102</v>
+        <v>-45746.9015664606</v>
       </c>
       <c r="F6" t="n">
-        <v>478536.0027766854</v>
+        <v>479413.1349104349</v>
       </c>
       <c r="G6" t="n">
-        <v>478536.0027766852</v>
+        <v>479413.1349104349</v>
       </c>
       <c r="H6" t="n">
-        <v>478536.0027766853</v>
+        <v>479413.134910435</v>
       </c>
       <c r="I6" t="n">
-        <v>478536.0027766854</v>
+        <v>479413.1349104352</v>
       </c>
       <c r="J6" t="n">
-        <v>302112.7835840926</v>
+        <v>302989.9157178422</v>
       </c>
       <c r="K6" t="n">
-        <v>478536.0027766852</v>
+        <v>479413.1349104351</v>
       </c>
       <c r="L6" t="n">
-        <v>478536.0027766853</v>
+        <v>479413.1349104348</v>
       </c>
       <c r="M6" t="n">
-        <v>343734.9875428481</v>
+        <v>344612.1196765979</v>
       </c>
       <c r="N6" t="n">
-        <v>478536.0027766856</v>
+        <v>479413.1349104348</v>
       </c>
       <c r="O6" t="n">
-        <v>478536.0027766853</v>
+        <v>479413.1349104349</v>
       </c>
       <c r="P6" t="n">
-        <v>478536.0027766854</v>
+        <v>479413.134910435</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170868</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26752,19 +26752,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>38.57147555637903</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>55.19449910821504</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>76.02051640400057</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>279.2057929143438</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>74.74425144011315</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>81.13398864317773</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>44.47535211858127</v>
+        <v>10.52067551358107</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831821</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28064,16 +28064,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>125.3743547112079</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932186</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192551</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382552</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
